--- a/Chapter7_Sorting/analysis/worst_case_analysis.xlsx
+++ b/Chapter7_Sorting/analysis/worst_case_analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CS2341\Chapter7_Sorting\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\hahsler\CS2341\Lecture\Chapter7_Sorting\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E5B1F8-621B-4E10-BEFD-B055B21D642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{75B15752-FF96-43BF-A323-BC1E43B31662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30336" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="worse_case" sheetId="1" r:id="rId2"/>
+    <sheet name="worse_case" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
@@ -93,6 +93,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,12 +573,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -621,7 +625,23 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -648,7 +668,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[worse_case_analysis.xlsx]Sheet1!PivotTable2</c:name>
+    <c:name>[worst_case_analysis.xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -834,7 +854,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:f>'Pivot Table'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -855,71 +875,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:f>'Pivot Table'!$A$5:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Bubble Sort</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Heap Sort</c:v>
+                  <c:v>Selection Sort</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Insertion Sort</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Introsort (STL hybrid)</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Merge Sort</c:v>
+                <c:pt idx="5">
+                  <c:v>Heap Sort</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>Shell Sort</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Quicksort (Original)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Quicksort (with median of 3 and insertion sort)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Selection Sort</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Shell Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:f>'Pivot Table'!$B$5:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1653.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.9</c:v>
+                  <c:v>383.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>93.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>96.2</c:v>
+                <c:pt idx="5">
+                  <c:v>90.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>59.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>383.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +955,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:f>'Pivot Table'!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -956,71 +976,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:f>'Pivot Table'!$A$5:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Bubble Sort</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Heap Sort</c:v>
+                  <c:v>Selection Sort</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Insertion Sort</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Introsort (STL hybrid)</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Merge Sort</c:v>
+                <c:pt idx="5">
+                  <c:v>Heap Sort</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>Shell Sort</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Quicksort (Original)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Quicksort (with median of 3 and insertion sort)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Selection Sort</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Shell Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:f>'Pivot Table'!$C$5:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1399.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.400000000000006</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>453.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>34.6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>55.1</c:v>
+                <c:pt idx="5">
+                  <c:v>78.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>285.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1056,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:f>'Pivot Table'!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1057,71 +1077,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:f>'Pivot Table'!$A$5:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Bubble Sort</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Heap Sort</c:v>
+                  <c:v>Selection Sort</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Insertion Sort</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Introsort (STL hybrid)</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Merge Sort</c:v>
+                <c:pt idx="5">
+                  <c:v>Heap Sort</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>Shell Sort</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Quicksort (Original)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Quicksort (with median of 3 and insertion sort)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Selection Sort</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Shell Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:f>'Pivot Table'!$D$5:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.900000000000006</c:v>
+                  <c:v>369.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>38.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.1</c:v>
+                <c:pt idx="5">
+                  <c:v>80.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>352.1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>369.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1292,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3933,7 +3953,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="10">
         <item x="0"/>
         <item x="1"/>
@@ -3946,6 +3966,18 @@
         <item x="8"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
@@ -3967,28 +3999,28 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
+      <x v="4"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -4012,8 +4044,13 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of  time in microseconds" fld="3" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Average of  time in microseconds" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="16">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -4235,9 +4272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4275,7 +4312,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4381,7 +4418,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4523,251 +4560,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1653.2</v>
-      </c>
-      <c r="C5">
-        <v>1399.3</v>
-      </c>
-      <c r="D5">
-        <v>0.4</v>
-      </c>
-      <c r="E5">
-        <v>1017.6333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>90.9</v>
-      </c>
-      <c r="C6">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="D6">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="E6">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>264</v>
-      </c>
-      <c r="C7">
-        <v>453.3</v>
-      </c>
-      <c r="D7">
-        <v>1.5</v>
-      </c>
-      <c r="E7">
-        <v>239.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>93.5</v>
-      </c>
-      <c r="C8">
-        <v>34.6</v>
-      </c>
-      <c r="D8">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="E8">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>96.2</v>
-      </c>
-      <c r="C9">
-        <v>55.1</v>
-      </c>
-      <c r="D9">
-        <v>60.1</v>
-      </c>
-      <c r="E9">
-        <v>70.466666666666669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>59.5</v>
-      </c>
-      <c r="C10">
-        <v>285.2</v>
-      </c>
-      <c r="D10">
-        <v>352.1</v>
-      </c>
-      <c r="E10">
-        <v>232.26666666666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>10.8</v>
-      </c>
-      <c r="D11">
-        <v>7.1</v>
-      </c>
-      <c r="E11">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>383.5</v>
-      </c>
-      <c r="C12">
-        <v>273</v>
-      </c>
-      <c r="D12">
-        <v>369.7</v>
-      </c>
-      <c r="E12">
-        <v>342.06666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>85.9</v>
-      </c>
-      <c r="C13">
-        <v>29.8</v>
-      </c>
-      <c r="D13">
-        <v>17.2</v>
-      </c>
-      <c r="E13">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>308.4111111111111</v>
-      </c>
-      <c r="C14">
-        <v>291.05555555555554</v>
-      </c>
-      <c r="D14">
-        <v>103.07777777777778</v>
-      </c>
-      <c r="E14">
-        <v>234.18148148148148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4784,7 +4599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4801,7 +4616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4818,7 +4633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4835,7 +4650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4852,7 +4667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4869,7 +4684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4886,7 +4701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4903,7 +4718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4920,7 +4735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4937,7 +4752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4954,7 +4769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -4971,7 +4786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -4988,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5005,7 +4820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5022,7 +4837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -5039,7 +4854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -5056,7 +4871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -5073,7 +4888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -5090,7 +4905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -5107,7 +4922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -5124,7 +4939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -5141,7 +4956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -5158,7 +4973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -5175,7 +4990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -5192,7 +5007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -5209,7 +5024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -5226,7 +5041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -5243,7 +5058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -5260,7 +5075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -5277,7 +5092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -5294,7 +5109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5311,7 +5126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -5328,7 +5143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -5345,7 +5160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5362,7 +5177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -5379,7 +5194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -5396,7 +5211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -5413,7 +5228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -5430,7 +5245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -5447,7 +5262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +5279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -5481,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -5498,7 +5313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -5515,7 +5330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -5532,7 +5347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -5549,7 +5364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -5566,7 +5381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -5583,7 +5398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -5600,7 +5415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5634,7 +5449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +5466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -5668,7 +5483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -5685,7 +5500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -5702,7 +5517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -5719,7 +5534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -5736,7 +5551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -5753,7 +5568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -5770,7 +5585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -5787,7 +5602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -5804,7 +5619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -5821,7 +5636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -5838,7 +5653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -5855,7 +5670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -5872,7 +5687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -5889,7 +5704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +5721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -5923,7 +5738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -5940,7 +5755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -5957,7 +5772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -5974,7 +5789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -5991,7 +5806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -6008,7 +5823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -6025,7 +5840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -6042,7 +5857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -6059,7 +5874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -6076,7 +5891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -6093,7 +5908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -6110,7 +5925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -6127,7 +5942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -6144,7 +5959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -6161,7 +5976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -6178,7 +5993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -6195,7 +6010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -6212,7 +6027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -6229,7 +6044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -6246,7 +6061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -6263,7 +6078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -6280,7 +6095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -6297,7 +6112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -6314,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -6331,7 +6146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -6348,7 +6163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -6365,7 +6180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -6382,7 +6197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -6399,7 +6214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -6416,7 +6231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -6433,7 +6248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -6450,7 +6265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -6467,7 +6282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -6484,7 +6299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -6501,7 +6316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -6518,7 +6333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -6535,7 +6350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -6552,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -6569,7 +6384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -6586,7 +6401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -6603,7 +6418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -6620,7 +6435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -6637,7 +6452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -6654,7 +6469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -6671,7 +6486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -6688,7 +6503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -6705,7 +6520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -6722,7 +6537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -6739,7 +6554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -6756,7 +6571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -6773,7 +6588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -6790,7 +6605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -6807,7 +6622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -6824,7 +6639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -6841,7 +6656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -6858,7 +6673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -6875,7 +6690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -6892,7 +6707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -6909,7 +6724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -6926,7 +6741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -6943,7 +6758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -6960,7 +6775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -6977,7 +6792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -6994,7 +6809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -7011,7 +6826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -7028,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -7045,7 +6860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -7062,7 +6877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -7079,7 +6894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -7096,7 +6911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -7113,7 +6928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -7130,7 +6945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -7147,7 +6962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -7164,7 +6979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -7181,7 +6996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -7198,7 +7013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -7215,7 +7030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -7232,7 +7047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -7249,7 +7064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -7266,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -7283,7 +7098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -7300,7 +7115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -7317,7 +7132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -7334,7 +7149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -7351,7 +7166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -7368,7 +7183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -7385,7 +7200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -7402,7 +7217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -7419,7 +7234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -7436,7 +7251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -7453,7 +7268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -7470,7 +7285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -7487,7 +7302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -7504,7 +7319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -7521,7 +7336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -7538,7 +7353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -7555,7 +7370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -7572,7 +7387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -7589,7 +7404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -7606,7 +7421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -7623,7 +7438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -7640,7 +7455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -7657,7 +7472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -7674,7 +7489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -7691,7 +7506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -7708,7 +7523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -7725,7 +7540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -7742,7 +7557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -7759,7 +7574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -7776,7 +7591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -7793,7 +7608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -7810,7 +7625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -7827,7 +7642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -7844,7 +7659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -7861,7 +7676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -7878,7 +7693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -7895,7 +7710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -7912,7 +7727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -7929,7 +7744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -7946,7 +7761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -7963,7 +7778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -7980,7 +7795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -7997,7 +7812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -8014,7 +7829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +7846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -8048,7 +7863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -8065,7 +7880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -8082,7 +7897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -8099,7 +7914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -8116,7 +7931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -8133,7 +7948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -8150,7 +7965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -8167,7 +7982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -8184,7 +7999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -8201,7 +8016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -8218,7 +8033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -8235,7 +8050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -8252,7 +8067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -8269,7 +8084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -8286,7 +8101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -8303,7 +8118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -8320,7 +8135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -8337,7 +8152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -8354,7 +8169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -8371,7 +8186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -8388,7 +8203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -8405,7 +8220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -8422,7 +8237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -8439,7 +8254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -8456,7 +8271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -8473,7 +8288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -8490,7 +8305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -8507,7 +8322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -8524,7 +8339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -8541,7 +8356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -8558,7 +8373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -8575,7 +8390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -8592,7 +8407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -8609,7 +8424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -8626,7 +8441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -8643,7 +8458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -8660,7 +8475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -8677,7 +8492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -8694,7 +8509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -8711,7 +8526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -8728,7 +8543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -8745,7 +8560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -8762,7 +8577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -8779,7 +8594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -8796,7 +8611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -8813,7 +8628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -8830,7 +8645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -8847,7 +8662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -8864,7 +8679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -8881,7 +8696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -8898,7 +8713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -8915,7 +8730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>10</v>
       </c>
@@ -8932,7 +8747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -8949,7 +8764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -8966,7 +8781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -8983,7 +8798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -9000,7 +8815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -9017,7 +8832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -9034,7 +8849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -9051,7 +8866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -9068,7 +8883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -9085,7 +8900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -9102,7 +8917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -9119,7 +8934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>10</v>
       </c>
@@ -9136,7 +8951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -9153,7 +8968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -9170,7 +8985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -9187,7 +9002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -9204,7 +9019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -9221,7 +9036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -9238,7 +9053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -9255,7 +9070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>10</v>
       </c>
@@ -9272,7 +9087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -9289,7 +9104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -9306,7 +9121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>10</v>
       </c>
@@ -9323,7 +9138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -9340,7 +9155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -9357,7 +9172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -9380,4 +9195,228 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1653.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1399.3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1017.6333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>383.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>273</v>
+      </c>
+      <c r="D6" s="3">
+        <v>369.7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>342.06666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>264</v>
+      </c>
+      <c r="C7" s="3">
+        <v>453.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>239.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>96.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>55.1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>70.466666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E9" s="3">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>90.9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D10" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E10" s="3">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>85.9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>59.5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>285.2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>352.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>232.26666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>308.4111111111111</v>
+      </c>
+      <c r="C14" s="3">
+        <v>291.05555555555554</v>
+      </c>
+      <c r="D14" s="3">
+        <v>103.07777777777778</v>
+      </c>
+      <c r="E14" s="3">
+        <v>234.18148148148148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>